--- a/data/template.xlsx
+++ b/data/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\q-method-host\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF55DE9-3945-4B16-BA78-66268E636133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B926D9-4290-4685-8B56-1CE1C85B4068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,9 +67,6 @@
     <t>Citizens should be included from an early stage in the policy development processes to foster the energy transition.</t>
   </si>
   <si>
-    <t>Citizens should only be included in the government’s decision-making process, if this provides them with any concrete advantages.</t>
-  </si>
-  <si>
     <t>The energy transition should not be the citizens responsibilty, but the governments as they are the ones producing energy and making decisions.</t>
   </si>
   <si>
@@ -164,6 +161,9 @@
   </si>
   <si>
     <t>Red</t>
+  </si>
+  <si>
+    <t>Citizens should only be included in the government’s decision-making process if it provides them with any concrete advantages.</t>
   </si>
 </sst>
 </file>
@@ -492,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F5D979-D0FE-4F21-AAA2-3FE6B215ECEF}">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -602,7 +602,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -610,7 +610,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -618,7 +618,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -626,7 +626,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -634,7 +634,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -642,7 +642,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -650,7 +650,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -658,7 +658,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -666,7 +666,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -674,7 +674,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -682,7 +682,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -690,7 +690,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -698,7 +698,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -706,7 +706,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -714,7 +714,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -722,7 +722,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -730,7 +730,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -738,7 +738,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -746,7 +746,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -754,7 +754,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -762,7 +762,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -770,7 +770,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -778,7 +778,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -786,7 +786,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -794,7 +794,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -802,7 +802,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -810,7 +810,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -818,7 +818,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -846,10 +846,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -860,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -882,7 +882,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -893,7 +893,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -904,7 +904,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -915,7 +915,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -926,7 +926,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -937,7 +937,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -948,7 +948,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/data/template.xlsx
+++ b/data/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\q-method-host\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B926D9-4290-4685-8B56-1CE1C85B4068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD574A0-45F1-481F-BEE1-150A41342385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,9 +76,6 @@
     <t>The involvement of citizens should not be implemented since they dont result in effective energy projects.</t>
   </si>
   <si>
-    <t>Citzens should contribute to the energy transition if the government provides support in unexpected situations.</t>
-  </si>
-  <si>
     <t>Community representatives should be involved in the decision making process in the energy transition.</t>
   </si>
   <si>
@@ -164,6 +161,9 @@
   </si>
   <si>
     <t>Citizens should only be included in the government’s decision-making process if it provides them with any concrete advantages.</t>
+  </si>
+  <si>
+    <t>Citizens should contribute to the energy transition if the government provides support in unexpected situations.</t>
   </si>
 </sst>
 </file>
@@ -493,7 +493,7 @@
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -602,7 +602,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -634,7 +634,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -642,7 +642,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -650,7 +650,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -658,7 +658,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -666,7 +666,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -674,7 +674,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -682,7 +682,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -690,7 +690,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -698,7 +698,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -706,7 +706,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -714,7 +714,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -722,7 +722,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -730,7 +730,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -738,7 +738,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -746,7 +746,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -754,7 +754,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -762,7 +762,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -770,7 +770,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -778,7 +778,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -786,7 +786,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -794,7 +794,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -802,7 +802,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -810,7 +810,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -818,7 +818,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -846,10 +846,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -860,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -882,7 +882,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -893,7 +893,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -904,7 +904,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -915,7 +915,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -926,7 +926,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -937,7 +937,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -948,7 +948,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
